--- a/presentation/Results.xlsx
+++ b/presentation/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
   <si>
     <t>Feature set</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>trees = 50</t>
+  </si>
+  <si>
+    <t>AdaBoost + DecisionTrees</t>
+  </si>
+  <si>
+    <t>max_depth = 1</t>
+  </si>
+  <si>
+    <t>max_depth = 9</t>
+  </si>
+  <si>
+    <t>max_depth = 3</t>
+  </si>
+  <si>
+    <t>Poly Kernel</t>
   </si>
 </sst>
 </file>
@@ -422,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,6 +475,9 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="D2">
+        <v>0.77349999999999997</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -469,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.76049999999999995</v>
+        <v>0.68500000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -480,13 +498,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>0.78539999999999999</v>
+        <v>0.76049999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -497,10 +515,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>0.80889999999999995</v>
+        <v>0.78539999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -508,13 +526,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>0.81759999999999999</v>
+        <v>0.80889999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -525,10 +543,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>0.80520000000000003</v>
+        <v>0.81759999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -539,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>0.81510000000000005</v>
+        <v>0.80520000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -553,10 +571,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>0.69599999999999995</v>
+        <v>0.81510000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -564,13 +582,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>0.86729999999999996</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -581,10 +599,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>0.89790000000000003</v>
+        <v>0.86729999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -595,66 +613,66 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>0.89790000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>0.90810000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>0.79649999999999999</v>
+        <v>0.8387</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>0.76049999999999995</v>
+        <v>0.82869999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>0.80130000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>0.81140000000000001</v>
+        <v>0.82509999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -662,27 +680,27 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>0.75800000000000001</v>
+        <v>0.79649999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>0.73070000000000002</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -690,13 +708,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>0.75929999999999997</v>
+        <v>0.76049999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -704,13 +722,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>0.71340000000000003</v>
+        <v>0.80130000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -718,13 +736,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>0.88560000000000005</v>
+        <v>0.81140000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -732,13 +750,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>0.90810000000000002</v>
+        <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -746,13 +764,125 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>0.73070000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>0.75929999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>0.71340000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>0.88560000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>0.90810000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D24">
+      <c r="D29">
         <v>0.92869999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>0.81759999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>0.79279999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>0.77139999999999997</v>
       </c>
     </row>
   </sheetData>
